--- a/ExcelProgress.xlsx
+++ b/ExcelProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucafeulner/IdeaProjects/MiniMarioParty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E45AB7A9-3F24-4E40-8B99-C91190E63889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26F695A-A2B8-A042-944A-EAEDBAC7D9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{08BF3794-BBBC-AC4A-8BCC-FE4A663E2B12}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Minesweeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David und Leyla </t>
   </si>
 </sst>
 </file>
@@ -492,12 +495,12 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
@@ -608,6 +611,9 @@
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ExcelProgress.xlsx
+++ b/ExcelProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/IdeaProjects/MiniMarioParty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A4310A-4E30-A944-A3E0-8B5A751B561B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B637895A-79BB-BF4B-A4F0-18DDF375C927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{08BF3794-BBBC-AC4A-8BCC-FE4A663E2B12}"/>
   </bookViews>
@@ -511,11 +511,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp145.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp146.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp147.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,11 +555,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp155.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp156.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp157.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,11 +587,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp162.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp163.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp164.xml><?xml version="1.0" encoding="utf-8"?>
@@ -623,7 +623,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp170.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp171.xml><?xml version="1.0" encoding="utf-8"?>
@@ -799,7 +799,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
@@ -855,7 +855,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
@@ -915,7 +915,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
@@ -971,7 +971,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12476,7 +12476,7 @@
                   <a14:compatExt spid="_x0000_s1234"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BFD9F5-1C2D-4A24-092E-8D83C60874BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D2040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>

--- a/ExcelProgress.xlsx
+++ b/ExcelProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/IdeaProjects/MiniMarioParty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B637895A-79BB-BF4B-A4F0-18DDF375C927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AF28E8-3407-D54C-9F58-C1E5D2E25553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{08BF3794-BBBC-AC4A-8BCC-FE4A663E2B12}"/>
   </bookViews>
@@ -403,7 +403,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>

--- a/ExcelProgress.xlsx
+++ b/ExcelProgress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/IdeaProjects/MiniMarioParty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AF28E8-3407-D54C-9F58-C1E5D2E25553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF3C55D-FF55-2749-BC8D-9FBBEA4BAE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{08BF3794-BBBC-AC4A-8BCC-FE4A663E2B12}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>Sung/Leyla/Luca/David/Laura/John</t>
+  </si>
+  <si>
+    <t>Labyrinth</t>
+  </si>
+  <si>
+    <t>Präsentation</t>
   </si>
 </sst>
 </file>
@@ -343,7 +349,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,7 +409,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,7 +477,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp136.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp137.xml><?xml version="1.0" encoding="utf-8"?>
@@ -634,14 +640,122 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp173.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp174.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp175.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp176.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp177.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp178.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp179.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp180.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp181.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp182.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp183.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp184.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp185.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp186.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp187.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp188.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp189.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp190.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp191.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp192.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp193.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp194.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp195.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp196.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp197.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp198.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp199.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
@@ -650,24 +764,236 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp200.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp201.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp202.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp203.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp204.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp205.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp206.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp207.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp208.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp209.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp210.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp211.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp212.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp213.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp214.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp215.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp216.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp217.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp218.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp219.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp220.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp221.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp222.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp223.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp224.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp225.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp226.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp227.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp228.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp229.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp230.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp231.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp232.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp233.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp234.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp235.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp236.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp237.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp238.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp239.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp240.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp241.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp242.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp243.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp244.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp245.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp246.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp247.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp248.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp249.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp250.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp251.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp252.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12520,12 +12846,4972 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1235" name="Check Box 211" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1235"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9842E8A9-9132-AF4D-8E4C-3A3060045C82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1236" name="Check Box 212" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1236"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD057B6-C2F3-D94D-9409-BC800BE9A563}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1237" name="Check Box 213" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1237"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C426DED6-CD55-2743-97D9-C8EA10E4D907}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1238" name="Check Box 214" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1238"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6040C80E-A2C2-4647-977D-7C42F73A5C3D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1239" name="Check Box 215" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1239"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B00245E-39AC-264E-86D6-666987150514}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1240" name="Check Box 216" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1240"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE35D6C5-D3C8-9D44-AB21-68A96DE846D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1241" name="Check Box 217" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1241"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600DC7A6-D40B-4C40-9FCD-2F8D032358DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1242" name="Check Box 218" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1242"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A923DE7A-9192-D444-BC01-6F0FE01812EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1243" name="Check Box 219" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1243"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F08740E-BA9C-0A4F-BDAD-D2333332EB74}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1244" name="Check Box 220" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1244"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97896AC8-2228-5B4D-85C9-6AA2394CD082}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1245" name="Check Box 221" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1245"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63432F32-F41C-D04A-892E-D15B9EE6E552}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1246" name="Check Box 222" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1246"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4E49D4-30FC-DD41-9706-658AA8CC1251}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1247" name="Check Box 223" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1247"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E28D62F-06CD-6440-8D32-7738FEF01459}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1248" name="Check Box 224" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1248"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8C7D29-4563-0747-B582-05701E62D910}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1249" name="Check Box 225" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1249"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B02772-8B02-1949-A826-2A22A5A5FC96}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1250" name="Check Box 226" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1250"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827386DD-0BB1-A94E-8FE9-711C81BEFBCF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1251" name="Check Box 227" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1251"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7E3033-90F6-8F4C-A85A-1B978B4B85E8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1252" name="Check Box 228" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1252"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4E20A9-25EB-F848-A657-1BC401059747}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1253" name="Check Box 229" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1253"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129A772B-466C-DA44-A71D-264E83E291D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1254" name="Check Box 230" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1254"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7EFE1A8-86C6-0E4C-9035-6DEC9A6C0D5F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1255" name="Check Box 231" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1255"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5C7B83-7203-4E46-B4EE-4250569E28E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1256" name="Check Box 232" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1256"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB4B59E-BE7E-EB45-A69B-4E93AF5B58FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1257" name="Check Box 233" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1257"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{284C1A91-D3AC-3C4E-8D27-B18866EC1F90}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1258" name="Check Box 234" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1258"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7AD8D66-CF2B-E645-92EA-78FEA865B941}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1259" name="Check Box 235" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1259"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9254A08A-00F4-8643-B1BE-02B66C26A8C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1260" name="Check Box 236" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1260"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF06473A-39DE-E245-9CFF-225ED0F7225A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1261" name="Check Box 237" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1261"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73057B4E-92C9-5742-BDAB-4E58ABFB2EE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1262" name="Check Box 238" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1262"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C50CF9-C534-CF49-B52B-487E0A5BA23D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1263" name="Check Box 239" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1263"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2B1AE8-588C-5945-80CA-C4718FE58272}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1264" name="Check Box 240" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1264"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B145622A-06FA-6447-8A3D-A0290D1CB5F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1265" name="Check Box 241" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1265"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B663C41E-0854-C046-B4FF-D420C39D1E57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1266" name="Check Box 242" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1266"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DAA6935-BE63-B447-A785-9C6DF3D78C6A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1267" name="Check Box 243" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1267"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C12C67E-35F2-B445-841E-966A478F219C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1268" name="Check Box 244" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1268"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91D57BD-F42F-1849-AF63-B01D8534793A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1269" name="Check Box 245" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1269"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E24B390C-1A43-0842-83FB-80FA885132C8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1270" name="Check Box 246" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1270"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028E792C-156E-3344-900C-B7194E01986E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1271" name="Check Box 247" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1271"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB731604-9E62-EF4D-A8A9-180ACE443168}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1272" name="Check Box 248" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1272"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177A5C48-D1BC-054B-8B1D-0CA2E21C8EDD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1273" name="Check Box 249" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1273"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC2A5EA-25F8-6B47-873B-3DC5A2B183C2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1274" name="Check Box 250" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1274"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C0B25A-7CA9-384B-BF83-F2AE786F7C78}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1275" name="Check Box 251" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1275"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C9AFF98-BD32-254E-847F-5A4C08388C6E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1276" name="Check Box 252" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1276"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA684AA8-518A-1440-8CAA-09AFF67627CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1277" name="Check Box 253" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1277"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922ED09F-C5D0-E14F-B828-59A9C9118B52}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1278" name="Check Box 254" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1278"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC5DFE40-0BCB-744C-B30C-6BDA206BE1B9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1279" name="Check Box 255" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1279"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE561A2C-B4BA-BC4E-96ED-BF513541ADAD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1280" name="Check Box 256" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1280"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49875BD5-03BD-C34A-A598-06B39C36AF50}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1281" name="Check Box 257" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1281"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E5A4AF-99FB-D64B-B912-0E4CD64F02D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1282" name="Check Box 258" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1282"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D87E401-ABB9-2A47-B299-1B1566C198C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1283" name="Check Box 259" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1283"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4E4014-72F6-4542-9B03-060126DA5BB9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1284" name="Check Box 260" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1284"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82045004-14BD-EC41-B09F-B9BD5637B949}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1285" name="Check Box 261" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1285"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B6130A1-15BB-5A4B-A212-7BE030505F5D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1286" name="Check Box 262" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1286"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6214EB6-A059-464B-B50F-B45FA7BD5B6B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1287" name="Check Box 263" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1287"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C56EE92-2E34-4A45-B327-82FCDBDDA56C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1288" name="Check Box 264" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1288"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB4DF433-7F42-9743-B043-FBE96A834683}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1289" name="Check Box 265" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1289"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF61866-5804-B047-80BD-06181D9EC6F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1290" name="Check Box 266" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1290"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B77134-8D66-A443-8F93-35BE5C3ACAF3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1291" name="Check Box 267" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1291"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6414CBA0-BDF6-304F-AAD5-BB233ACC8738}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1292" name="Check Box 268" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1292"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A09EB0-AD4B-444E-A6A1-124AF9DD7B4B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1293" name="Check Box 269" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1293"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FED1132-BAB9-0444-B305-8FCFA13BDA8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1294" name="Check Box 270" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1294"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E154A4-62A4-FC43-90AA-ED3D9372802F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1295" name="Check Box 271" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1295"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F78528-DF96-F34C-994B-F0B3D2854328}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1296" name="Check Box 272" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1296"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB6C6F6E-D6C2-5E42-88B7-89A454D47792}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1297" name="Check Box 273" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1297"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A98EA2-E1D4-964E-B0BE-7C00C50C38EF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1298" name="Check Box 274" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1298"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09648C73-2E8C-2946-AE93-B9432F93014D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1299" name="Check Box 275" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1299"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9124A4D7-6212-4647-98FF-4A3D34635108}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1300" name="Check Box 276" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1300"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7605E346-756F-D344-A62F-BDB52E114108}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1301" name="Check Box 277" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1301"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E3A3AE-C07A-FE4C-B334-FA7435EF09EA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1302" name="Check Box 278" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1302"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2413EBD5-F94B-EA40-8E12-7040F534F2E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1303" name="Check Box 279" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1303"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F70C1DCA-FE19-2A4B-B5AE-A1365061338B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1304" name="Check Box 280" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1304"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F5F508-71D3-0044-B1B5-494A528C0E93}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1305" name="Check Box 281" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1305"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987AD098-D1D4-0D4A-BFAE-13EC027CE163}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1306" name="Check Box 282" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1306"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3FB1E5-AAC1-9E45-BAB7-087113AB0D68}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1307" name="Check Box 283" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1307"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DC1288-DDB4-DB42-B0D0-446B857E97DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1308" name="Check Box 284" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1308"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751F5F25-BD6C-5140-B4C0-2558ECAAAE8A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1309" name="Check Box 285" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1309"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DED01C9-254A-2C45-BCC4-195EE67CC13C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1310" name="Check Box 286" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1310"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3FCBE7-BDF5-EF46-88B5-4ADCE53BD6FA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1311" name="Check Box 287" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1311"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375A177D-9793-4C44-8321-40B7E01173AD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1312" name="Check Box 288" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1312"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC552DC4-67CC-EB4A-8A67-69D51A793A99}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1313" name="Check Box 289" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1313"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CCF919F-957D-BB45-85F2-F9290D1BABD5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1314" name="Check Box 290" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1314"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFCBD4B-C143-E548-8CFD-EA49B725A786}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D6CACDD-C5B6-4288-890C-1E3FDFD74DB2}" name="Table1" displayName="Table1" ref="A1:I18" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I18" xr:uid="{5D6CACDD-C5B6-4288-890C-1E3FDFD74DB2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D6CACDD-C5B6-4288-890C-1E3FDFD74DB2}" name="Table1" displayName="Table1" ref="A1:I20" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I20" xr:uid="{5D6CACDD-C5B6-4288-890C-1E3FDFD74DB2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1E91D87A-1F58-4201-9F75-D2B9A52BA53E}" name="Aufgabe" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{5CF4E3D5-2F20-430E-9CD0-03C111B5E00A}" name="Übernommen" dataDxfId="7"/>
@@ -12838,10 +18124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AB7D72-A48C-984B-A483-C8BC5C4302C7}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13158,6 +18444,36 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16950,11 +22266,1771 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1235" r:id="rId176" name="Check Box 211">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>850900</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1236" r:id="rId177" name="Check Box 212">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>850900</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1237" r:id="rId178" name="Check Box 213">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1238" r:id="rId179" name="Check Box 214">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1239" r:id="rId180" name="Check Box 215">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>2082800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1240" r:id="rId181" name="Check Box 216">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>2082800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1241" r:id="rId182" name="Check Box 217">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>368300</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1242" r:id="rId183" name="Check Box 218">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>368300</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1243" r:id="rId184" name="Check Box 219">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>177800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1244" r:id="rId185" name="Check Box 220">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>177800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1245" r:id="rId186" name="Check Box 221">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1246" r:id="rId187" name="Check Box 222">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1247" r:id="rId188" name="Check Box 223">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>635000</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1248" r:id="rId189" name="Check Box 224">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>635000</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1249" r:id="rId190" name="Check Box 225">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>850900</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1250" r:id="rId191" name="Check Box 226">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>850900</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1251" r:id="rId192" name="Check Box 227">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1252" r:id="rId193" name="Check Box 228">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1253" r:id="rId194" name="Check Box 229">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1254" r:id="rId195" name="Check Box 230">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1255" r:id="rId196" name="Check Box 231">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>2082800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1256" r:id="rId197" name="Check Box 232">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>2082800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1257" r:id="rId198" name="Check Box 233">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>2082800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1258" r:id="rId199" name="Check Box 234">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>2082800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1259" r:id="rId200" name="Check Box 235">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>368300</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1260" r:id="rId201" name="Check Box 236">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>368300</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1261" r:id="rId202" name="Check Box 237">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>368300</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1262" r:id="rId203" name="Check Box 238">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>368300</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1263" r:id="rId204" name="Check Box 239">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>177800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1264" r:id="rId205" name="Check Box 240">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>177800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1265" r:id="rId206" name="Check Box 241">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>177800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1266" r:id="rId207" name="Check Box 242">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>177800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1267" r:id="rId208" name="Check Box 243">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1268" r:id="rId209" name="Check Box 244">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1269" r:id="rId210" name="Check Box 245">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1270" r:id="rId211" name="Check Box 246">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1271" r:id="rId212" name="Check Box 247">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>635000</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1272" r:id="rId213" name="Check Box 248">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>635000</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1273" r:id="rId214" name="Check Box 249">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>635000</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1274" r:id="rId215" name="Check Box 250">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>635000</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1275" r:id="rId216" name="Check Box 251">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>850900</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1276" r:id="rId217" name="Check Box 252">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1277" r:id="rId218" name="Check Box 253">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>2082800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1278" r:id="rId219" name="Check Box 254">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>368300</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1279" r:id="rId220" name="Check Box 255">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>177800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1280" r:id="rId221" name="Check Box 256">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1281" r:id="rId222" name="Check Box 257">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>635000</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1282" r:id="rId223" name="Check Box 258">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>850900</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1283" r:id="rId224" name="Check Box 259">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1284" r:id="rId225" name="Check Box 260">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1285" r:id="rId226" name="Check Box 261">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>2082800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1286" r:id="rId227" name="Check Box 262">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>2082800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1287" r:id="rId228" name="Check Box 263">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>368300</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1288" r:id="rId229" name="Check Box 264">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>368300</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1289" r:id="rId230" name="Check Box 265">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>177800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1290" r:id="rId231" name="Check Box 266">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>177800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1291" r:id="rId232" name="Check Box 267">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1292" r:id="rId233" name="Check Box 268">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1293" r:id="rId234" name="Check Box 269">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>635000</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1294" r:id="rId235" name="Check Box 270">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>635000</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1295" r:id="rId236" name="Check Box 271">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>850900</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1296" r:id="rId237" name="Check Box 272">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1297" r:id="rId238" name="Check Box 273">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>2082800</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1298" r:id="rId239" name="Check Box 274">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>368300</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1299" r:id="rId240" name="Check Box 275">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>177800</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1300" r:id="rId241" name="Check Box 276">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1301" r:id="rId242" name="Check Box 277">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>635000</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1302" r:id="rId243" name="Check Box 278">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>850900</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1303" r:id="rId244" name="Check Box 279">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1304" r:id="rId245" name="Check Box 280">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1305" r:id="rId246" name="Check Box 281">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>2082800</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1306" r:id="rId247" name="Check Box 282">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>2082800</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1307" r:id="rId248" name="Check Box 283">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>368300</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1308" r:id="rId249" name="Check Box 284">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>368300</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1309" r:id="rId250" name="Check Box 285">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>177800</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1310" r:id="rId251" name="Check Box 286">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>177800</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1311" r:id="rId252" name="Check Box 287">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1312" r:id="rId253" name="Check Box 288">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1313" r:id="rId254" name="Check Box 289">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>635000</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1314" r:id="rId255" name="Check Box 290">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>635000</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
   <tableParts count="1">
-    <tablePart r:id="rId176"/>
+    <tablePart r:id="rId256"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ExcelProgress.xlsx
+++ b/ExcelProgress.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/IdeaProjects/MiniMarioParty/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF3C55D-FF55-2749-BC8D-9FBBEA4BAE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leylabrendler/IdeaProjects/Marioparty/MiniMarioParty/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5265092-B93F-9A4D-BEA2-1D3BD04D6644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{08BF3794-BBBC-AC4A-8BCC-FE4A663E2B12}"/>
   </bookViews>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1141,7 +1140,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1201,7 +1200,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12848,14 +12847,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>850900</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1235" name="Check Box 211" hidden="1">
@@ -12864,60 +12868,65 @@
                   <a14:compatExt spid="_x0000_s1235"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9842E8A9-9132-AF4D-8E4C-3A3060045C82}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D3040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>850900</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1236" name="Check Box 212" hidden="1">
@@ -12926,60 +12935,65 @@
                   <a14:compatExt spid="_x0000_s1236"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD057B6-C2F3-D94D-9409-BC800BE9A563}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D4040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1237" name="Check Box 213" hidden="1">
@@ -12988,60 +13002,65 @@
                   <a14:compatExt spid="_x0000_s1237"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C426DED6-CD55-2743-97D9-C8EA10E4D907}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1238" name="Check Box 214" hidden="1">
@@ -13050,60 +13069,65 @@
                   <a14:compatExt spid="_x0000_s1238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6040C80E-A2C2-4647-977D-7C42F73A5C3D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D6040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>2082800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1239" name="Check Box 215" hidden="1">
@@ -13112,60 +13136,65 @@
                   <a14:compatExt spid="_x0000_s1239"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B00245E-39AC-264E-86D6-666987150514}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>2082800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1240" name="Check Box 216" hidden="1">
@@ -13174,60 +13203,65 @@
                   <a14:compatExt spid="_x0000_s1240"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE35D6C5-D3C8-9D44-AB21-68A96DE846D2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>368300</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1241" name="Check Box 217" hidden="1">
@@ -13236,60 +13270,65 @@
                   <a14:compatExt spid="_x0000_s1241"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600DC7A6-D40B-4C40-9FCD-2F8D032358DD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D9040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>368300</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1242" name="Check Box 218" hidden="1">
@@ -13298,60 +13337,65 @@
                   <a14:compatExt spid="_x0000_s1242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A923DE7A-9192-D444-BC01-6F0FE01812EB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DA040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>177800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1243" name="Check Box 219" hidden="1">
@@ -13360,60 +13404,65 @@
                   <a14:compatExt spid="_x0000_s1243"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F08740E-BA9C-0A4F-BDAD-D2333332EB74}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>177800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1244" name="Check Box 220" hidden="1">
@@ -13422,60 +13471,65 @@
                   <a14:compatExt spid="_x0000_s1244"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97896AC8-2228-5B4D-85C9-6AA2394CD082}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1245" name="Check Box 221" hidden="1">
@@ -13484,60 +13538,65 @@
                   <a14:compatExt spid="_x0000_s1245"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63432F32-F41C-D04A-892E-D15B9EE6E552}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DD040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1246" name="Check Box 222" hidden="1">
@@ -13546,60 +13605,65 @@
                   <a14:compatExt spid="_x0000_s1246"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4E49D4-30FC-DD41-9706-658AA8CC1251}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DE040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>635000</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1247" name="Check Box 223" hidden="1">
@@ -13608,60 +13672,65 @@
                   <a14:compatExt spid="_x0000_s1247"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E28D62F-06CD-6440-8D32-7738FEF01459}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DF040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>635000</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1248" name="Check Box 224" hidden="1">
@@ -13670,60 +13739,65 @@
                   <a14:compatExt spid="_x0000_s1248"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8C7D29-4563-0747-B582-05701E62D910}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E0040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>850900</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1249" name="Check Box 225" hidden="1">
@@ -13732,60 +13806,65 @@
                   <a14:compatExt spid="_x0000_s1249"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B02772-8B02-1949-A826-2A22A5A5FC96}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E1040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>850900</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1250" name="Check Box 226" hidden="1">
@@ -13794,60 +13873,65 @@
                   <a14:compatExt spid="_x0000_s1250"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827386DD-0BB1-A94E-8FE9-711C81BEFBCF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E2040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1251" name="Check Box 227" hidden="1">
@@ -13856,60 +13940,65 @@
                   <a14:compatExt spid="_x0000_s1251"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7E3033-90F6-8F4C-A85A-1B978B4B85E8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E3040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1252" name="Check Box 228" hidden="1">
@@ -13918,60 +14007,65 @@
                   <a14:compatExt spid="_x0000_s1252"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4E20A9-25EB-F848-A657-1BC401059747}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E4040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1253" name="Check Box 229" hidden="1">
@@ -13980,60 +14074,65 @@
                   <a14:compatExt spid="_x0000_s1253"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129A772B-466C-DA44-A71D-264E83E291D5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E5040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1254" name="Check Box 230" hidden="1">
@@ -14042,60 +14141,65 @@
                   <a14:compatExt spid="_x0000_s1254"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7EFE1A8-86C6-0E4C-9035-6DEC9A6C0D5F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E6040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>2082800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1255" name="Check Box 231" hidden="1">
@@ -14104,60 +14208,65 @@
                   <a14:compatExt spid="_x0000_s1255"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5C7B83-7203-4E46-B4EE-4250569E28E9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E7040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>2082800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1256" name="Check Box 232" hidden="1">
@@ -14166,60 +14275,65 @@
                   <a14:compatExt spid="_x0000_s1256"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB4B59E-BE7E-EB45-A69B-4E93AF5B58FC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E8040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>2082800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1257" name="Check Box 233" hidden="1">
@@ -14228,60 +14342,65 @@
                   <a14:compatExt spid="_x0000_s1257"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{284C1A91-D3AC-3C4E-8D27-B18866EC1F90}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E9040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>2082800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1258" name="Check Box 234" hidden="1">
@@ -14290,60 +14409,65 @@
                   <a14:compatExt spid="_x0000_s1258"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7AD8D66-CF2B-E645-92EA-78FEA865B941}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EA040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>368300</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1259" name="Check Box 235" hidden="1">
@@ -14352,60 +14476,65 @@
                   <a14:compatExt spid="_x0000_s1259"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9254A08A-00F4-8643-B1BE-02B66C26A8C8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EB040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>368300</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1260" name="Check Box 236" hidden="1">
@@ -14414,60 +14543,65 @@
                   <a14:compatExt spid="_x0000_s1260"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF06473A-39DE-E245-9CFF-225ED0F7225A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EC040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>368300</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1261" name="Check Box 237" hidden="1">
@@ -14476,60 +14610,65 @@
                   <a14:compatExt spid="_x0000_s1261"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73057B4E-92C9-5742-BDAB-4E58ABFB2EE1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000ED040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>368300</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1262" name="Check Box 238" hidden="1">
@@ -14538,60 +14677,65 @@
                   <a14:compatExt spid="_x0000_s1262"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C50CF9-C534-CF49-B52B-487E0A5BA23D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EE040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>177800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1263" name="Check Box 239" hidden="1">
@@ -14600,60 +14744,65 @@
                   <a14:compatExt spid="_x0000_s1263"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2B1AE8-588C-5945-80CA-C4718FE58272}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EF040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>177800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1264" name="Check Box 240" hidden="1">
@@ -14662,60 +14811,65 @@
                   <a14:compatExt spid="_x0000_s1264"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B145622A-06FA-6447-8A3D-A0290D1CB5F0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F0040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>177800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1265" name="Check Box 241" hidden="1">
@@ -14724,60 +14878,65 @@
                   <a14:compatExt spid="_x0000_s1265"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B663C41E-0854-C046-B4FF-D420C39D1E57}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F1040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>177800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1266" name="Check Box 242" hidden="1">
@@ -14786,60 +14945,65 @@
                   <a14:compatExt spid="_x0000_s1266"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DAA6935-BE63-B447-A785-9C6DF3D78C6A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F2040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1267" name="Check Box 243" hidden="1">
@@ -14848,60 +15012,65 @@
                   <a14:compatExt spid="_x0000_s1267"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C12C67E-35F2-B445-841E-966A478F219C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F3040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1268" name="Check Box 244" hidden="1">
@@ -14910,60 +15079,65 @@
                   <a14:compatExt spid="_x0000_s1268"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91D57BD-F42F-1849-AF63-B01D8534793A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F4040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1269" name="Check Box 245" hidden="1">
@@ -14972,60 +15146,65 @@
                   <a14:compatExt spid="_x0000_s1269"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E24B390C-1A43-0842-83FB-80FA885132C8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F5040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1270" name="Check Box 246" hidden="1">
@@ -15034,60 +15213,65 @@
                   <a14:compatExt spid="_x0000_s1270"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028E792C-156E-3344-900C-B7194E01986E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F6040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>635000</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1271" name="Check Box 247" hidden="1">
@@ -15096,60 +15280,65 @@
                   <a14:compatExt spid="_x0000_s1271"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB731604-9E62-EF4D-A8A9-180ACE443168}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F7040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>635000</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1272" name="Check Box 248" hidden="1">
@@ -15158,60 +15347,65 @@
                   <a14:compatExt spid="_x0000_s1272"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177A5C48-D1BC-054B-8B1D-0CA2E21C8EDD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F8040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>635000</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1273" name="Check Box 249" hidden="1">
@@ -15220,60 +15414,65 @@
                   <a14:compatExt spid="_x0000_s1273"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC2A5EA-25F8-6B47-873B-3DC5A2B183C2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F9040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>635000</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1274" name="Check Box 250" hidden="1">
@@ -15282,60 +15481,65 @@
                   <a14:compatExt spid="_x0000_s1274"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C0B25A-7CA9-384B-BF83-F2AE786F7C78}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FA040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>850900</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1275" name="Check Box 251" hidden="1">
@@ -15344,60 +15548,65 @@
                   <a14:compatExt spid="_x0000_s1275"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C9AFF98-BD32-254E-847F-5A4C08388C6E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FB040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1276" name="Check Box 252" hidden="1">
@@ -15406,60 +15615,65 @@
                   <a14:compatExt spid="_x0000_s1276"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA684AA8-518A-1440-8CAA-09AFF67627CB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FC040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>2082800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1277" name="Check Box 253" hidden="1">
@@ -15468,60 +15682,65 @@
                   <a14:compatExt spid="_x0000_s1277"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922ED09F-C5D0-E14F-B828-59A9C9118B52}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FD040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>368300</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1278" name="Check Box 254" hidden="1">
@@ -15530,60 +15749,65 @@
                   <a14:compatExt spid="_x0000_s1278"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC5DFE40-0BCB-744C-B30C-6BDA206BE1B9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FE040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>177800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1279" name="Check Box 255" hidden="1">
@@ -15592,60 +15816,65 @@
                   <a14:compatExt spid="_x0000_s1279"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE561A2C-B4BA-BC4E-96ED-BF513541ADAD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FF040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1280" name="Check Box 256" hidden="1">
@@ -15654,60 +15883,65 @@
                   <a14:compatExt spid="_x0000_s1280"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49875BD5-03BD-C34A-A598-06B39C36AF50}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>635000</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1281" name="Check Box 257" hidden="1">
@@ -15716,60 +15950,65 @@
                   <a14:compatExt spid="_x0000_s1281"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E5A4AF-99FB-D64B-B912-0E4CD64F02D4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>850900</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1282" name="Check Box 258" hidden="1">
@@ -15778,60 +16017,65 @@
                   <a14:compatExt spid="_x0000_s1282"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D87E401-ABB9-2A47-B299-1B1566C198C1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1283" name="Check Box 259" hidden="1">
@@ -15840,60 +16084,65 @@
                   <a14:compatExt spid="_x0000_s1283"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4E4014-72F6-4542-9B03-060126DA5BB9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1284" name="Check Box 260" hidden="1">
@@ -15902,60 +16151,65 @@
                   <a14:compatExt spid="_x0000_s1284"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82045004-14BD-EC41-B09F-B9BD5637B949}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>2082800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1285" name="Check Box 261" hidden="1">
@@ -15964,60 +16218,65 @@
                   <a14:compatExt spid="_x0000_s1285"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B6130A1-15BB-5A4B-A212-7BE030505F5D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>2082800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1286" name="Check Box 262" hidden="1">
@@ -16026,60 +16285,65 @@
                   <a14:compatExt spid="_x0000_s1286"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6214EB6-A059-464B-B50F-B45FA7BD5B6B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>368300</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1287" name="Check Box 263" hidden="1">
@@ -16088,60 +16352,65 @@
                   <a14:compatExt spid="_x0000_s1287"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C56EE92-2E34-4A45-B327-82FCDBDDA56C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>368300</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1288" name="Check Box 264" hidden="1">
@@ -16150,60 +16419,65 @@
                   <a14:compatExt spid="_x0000_s1288"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB4DF433-7F42-9743-B043-FBE96A834683}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>177800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1289" name="Check Box 265" hidden="1">
@@ -16212,60 +16486,65 @@
                   <a14:compatExt spid="_x0000_s1289"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF61866-5804-B047-80BD-06181D9EC6F7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>177800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1290" name="Check Box 266" hidden="1">
@@ -16274,60 +16553,65 @@
                   <a14:compatExt spid="_x0000_s1290"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B77134-8D66-A443-8F93-35BE5C3ACAF3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1291" name="Check Box 267" hidden="1">
@@ -16336,60 +16620,65 @@
                   <a14:compatExt spid="_x0000_s1291"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6414CBA0-BDF6-304F-AAD5-BB233ACC8738}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1292" name="Check Box 268" hidden="1">
@@ -16398,60 +16687,65 @@
                   <a14:compatExt spid="_x0000_s1292"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A09EB0-AD4B-444E-A6A1-124AF9DD7B4B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>635000</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1293" name="Check Box 269" hidden="1">
@@ -16460,60 +16754,65 @@
                   <a14:compatExt spid="_x0000_s1293"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FED1132-BAB9-0444-B305-8FCFA13BDA8E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>635000</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1294" name="Check Box 270" hidden="1">
@@ -16522,60 +16821,65 @@
                   <a14:compatExt spid="_x0000_s1294"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E154A4-62A4-FC43-90AA-ED3D9372802F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>850900</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1295" name="Check Box 271" hidden="1">
@@ -16584,60 +16888,65 @@
                   <a14:compatExt spid="_x0000_s1295"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F78528-DF96-F34C-994B-F0B3D2854328}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1296" name="Check Box 272" hidden="1">
@@ -16646,60 +16955,65 @@
                   <a14:compatExt spid="_x0000_s1296"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB6C6F6E-D6C2-5E42-88B7-89A454D47792}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>2082800</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1297" name="Check Box 273" hidden="1">
@@ -16708,60 +17022,65 @@
                   <a14:compatExt spid="_x0000_s1297"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A98EA2-E1D4-964E-B0BE-7C00C50C38EF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>368300</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1298" name="Check Box 274" hidden="1">
@@ -16770,60 +17089,65 @@
                   <a14:compatExt spid="_x0000_s1298"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09648C73-2E8C-2946-AE93-B9432F93014D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>177800</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1299" name="Check Box 275" hidden="1">
@@ -16832,60 +17156,65 @@
                   <a14:compatExt spid="_x0000_s1299"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9124A4D7-6212-4647-98FF-4A3D34635108}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1300" name="Check Box 276" hidden="1">
@@ -16894,60 +17223,65 @@
                   <a14:compatExt spid="_x0000_s1300"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7605E346-756F-D344-A62F-BDB52E114108}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>635000</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1301" name="Check Box 277" hidden="1">
@@ -16956,60 +17290,65 @@
                   <a14:compatExt spid="_x0000_s1301"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E3A3AE-C07A-FE4C-B334-FA7435EF09EA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>850900</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1302" name="Check Box 278" hidden="1">
@@ -17018,60 +17357,65 @@
                   <a14:compatExt spid="_x0000_s1302"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2413EBD5-F94B-EA40-8E12-7040F534F2E1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1303" name="Check Box 279" hidden="1">
@@ -17080,60 +17424,65 @@
                   <a14:compatExt spid="_x0000_s1303"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F70C1DCA-FE19-2A4B-B5AE-A1365061338B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1304" name="Check Box 280" hidden="1">
@@ -17142,60 +17491,65 @@
                   <a14:compatExt spid="_x0000_s1304"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F5F508-71D3-0044-B1B5-494A528C0E93}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>2082800</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1305" name="Check Box 281" hidden="1">
@@ -17204,60 +17558,65 @@
                   <a14:compatExt spid="_x0000_s1305"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987AD098-D1D4-0D4A-BFAE-13EC027CE163}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>2082800</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1306" name="Check Box 282" hidden="1">
@@ -17266,60 +17625,65 @@
                   <a14:compatExt spid="_x0000_s1306"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3FB1E5-AAC1-9E45-BAB7-087113AB0D68}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>368300</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1307" name="Check Box 283" hidden="1">
@@ -17328,60 +17692,65 @@
                   <a14:compatExt spid="_x0000_s1307"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DC1288-DDB4-DB42-B0D0-446B857E97DF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2667000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>368300</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1308" name="Check Box 284" hidden="1">
@@ -17390,60 +17759,65 @@
                   <a14:compatExt spid="_x0000_s1308"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751F5F25-BD6C-5140-B4C0-2558ECAAAE8A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>177800</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1309" name="Check Box 285" hidden="1">
@@ -17452,60 +17826,65 @@
                   <a14:compatExt spid="_x0000_s1309"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DED01C9-254A-2C45-BCC4-195EE67CC13C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>177800</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1310" name="Check Box 286" hidden="1">
@@ -17514,60 +17893,65 @@
                   <a14:compatExt spid="_x0000_s1310"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3FCBE7-BDF5-EF46-88B5-4ADCE53BD6FA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1311" name="Check Box 287" hidden="1">
@@ -17576,60 +17960,65 @@
                   <a14:compatExt spid="_x0000_s1311"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375A177D-9793-4C44-8321-40B7E01173AD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2032000" cy="203200"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1312" name="Check Box 288" hidden="1">
@@ -17638,60 +18027,65 @@
                   <a14:compatExt spid="_x0000_s1312"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC552DC4-67CC-EB4A-8A67-69D51A793A99}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>635000</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1313" name="Check Box 289" hidden="1">
@@ -17700,60 +18094,65 @@
                   <a14:compatExt spid="_x0000_s1313"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CCF919F-957D-BB45-85F2-F9290D1BABD5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="2019300" cy="203200"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>635000</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1314" name="Check Box 290" hidden="1">
@@ -17762,47 +18161,47 @@
                   <a14:compatExt spid="_x0000_s1314"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFCBD4B-C143-E548-8CFD-EA49B725A786}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -18127,7 +18526,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
